--- a/Exercise Files/Exercise 7/E7 HR Data - Slicers.xlsx
+++ b/Exercise Files/Exercise 7/E7 HR Data - Slicers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Advanced PivotTables/Exercise Files/Exercise 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wayvy Technologies\Documents\GitHub\PivotTables\Exercise Files\Exercise 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{327DE5FC-1D21-4CD6-9E4C-EC9A200A3C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24AA78B3-A48A-4F48-87FA-853BCA604566}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D693A-A776-4185-9768-39E79E20C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{960E11C6-F8C0-4296-BE1C-66F0D68FFF3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{960E11C6-F8C0-4296-BE1C-66F0D68FFF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Info" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,36 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Info'!$A$1:$C$100</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable11" hidden="1">'Employee Info'!$A$1:$C$100</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable21" hidden="1">'[1]Department Info'!$A$1:$A$100</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable31" hidden="1">'[1]Job Info'!$A$1:$A$100</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable1" hidden="1">'Employee Info'!$A$1:$C$100</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable2" hidden="1">'[1]Department Info'!$A$1:$A$100</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable3" hidden="1">'[2]Job Info'!$A$1:$A$100</definedName>
+    <definedName name="NativeTimeline_Date_Hired">#N/A</definedName>
+    <definedName name="Slicer_Gender">#N/A</definedName>
+    <definedName name="Slicer_Job_Type">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId8"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -73,7 +91,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -82,7 +100,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -91,7 +109,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable31"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable3"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -100,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="148">
   <si>
     <t>Employee ID</t>
   </si>
@@ -486,13 +504,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>2004</t>
@@ -597,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,7 +618,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -705,16 +716,265 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Date Hired">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AF1923-8547-6E74-D847-0F1FD5C725D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer name="Date Hired"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="85726"/>
+              <a:ext cx="8343900" cy="1276350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Job Type">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF10288C-7084-3726-10C6-23CC4649F18C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Job Type"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="238124" y="1447800"/>
+              <a:ext cx="2181225" cy="447675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Gender">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBA1522-5315-D2B4-3BA2-2BF09E52854D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Gender"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2705100" y="1457325"/>
+              <a:ext cx="2247900" cy="409576"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Department Info"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Job Info"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2031,8 +2291,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A70687A-A717-4115-A00E-E6175DBA0AF2}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
-  <location ref="E14:F36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A70687A-A717-4115-A00E-E6175DBA0AF2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
+  <location ref="E14:F34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
@@ -2141,8 +2401,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2218,18 +2478,12 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="20">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -2305,8 +2559,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EEF074F-9D5B-4FFA-AB68-1D5FFB45081C}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department" customListSort="0">
-  <location ref="B14:C22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EEF074F-9D5B-4FFA-AB68-1D5FFB45081C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department" customListSort="0">
+  <location ref="B14:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0" sortType="descending">
@@ -2424,7 +2678,7 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -2512,27 +2766,15 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2545,6 +2787,23 @@
     <dataField name="Salary " fld="5" baseField="1" baseItem="1" numFmtId="42"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="7" type="dateBetween" evalOrder="-1" id="20" name="Date Hired">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="36526"/>
+            <customFilter operator="lessThanOrEqual" val="36891"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2554,6 +2813,45 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Job_Type" xr10:uid="{1DC9C1BA-3BDF-4FBA-A48D-826FDF78B5D1}" sourceName="Job Type">
+  <pivotTables>
+    <pivotTable tabId="8" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1758969193">
+      <items count="2">
+        <i x="1" s="1"/>
+        <i x="0"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender" xr10:uid="{D39D5723-4E92-496C-8CAC-D5C92AD32390}" sourceName="Gender">
+  <pivotTables>
+    <pivotTable tabId="8" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1758969193">
+      <items count="2">
+        <i x="1" s="1"/>
+        <i x="0"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Job Type" xr10:uid="{A896A7FF-0FF9-47CD-9BA8-A8B03E8F7E70}" cache="Slicer_Job_Type" caption="Job Type" columnCount="2" showCaption="0" style="SlicerStyleLight4" rowHeight="241300"/>
+  <slicer name="Gender" xr10:uid="{898F42E6-1D05-4CE0-ACDA-48862C7F1E48}" cache="Slicer_Gender" caption="Gender" columnCount="2" showCaption="0" style="SlicerStyleLight6" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2574,9 +2872,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2614,7 +2912,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2720,7 +3018,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2862,10 +3160,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date_Hired" xr10:uid="{050D1A6D-5BA0-4205-9C5F-6D4187B708B1}" sourceName="Date Hired">
+  <pivotTables>
+    <pivotTable tabId="8" name="PivotTable2"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1758969193" filterType="dateBetween">
+    <selection startDate="2000-01-01T00:00:00" endDate="2000-12-31T00:00:00"/>
+    <bounds startDate="2000-01-01T00:00:00" endDate="2021-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Date Hired" xr10:uid="{50C06EDF-E977-4DBA-B2E4-03405845CE9B}" cache="NativeTimeline_Date_Hired" caption="Date Hired" level="0" selectionLevel="0" scrollPosition="2000-01-01T00:00:00"/>
+</timelines>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2873,22 +3189,22 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +3230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2100</v>
       </c>
@@ -2940,7 +3256,7 @@
         <v>40445</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2101</v>
       </c>
@@ -2966,7 +3282,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2102</v>
       </c>
@@ -2992,7 +3308,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2103</v>
       </c>
@@ -3018,7 +3334,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2104</v>
       </c>
@@ -3044,7 +3360,7 @@
         <v>40164</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2105</v>
       </c>
@@ -3070,7 +3386,7 @@
         <v>40511</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2106</v>
       </c>
@@ -3096,7 +3412,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2107</v>
       </c>
@@ -3122,7 +3438,7 @@
         <v>38555</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2108</v>
       </c>
@@ -3148,7 +3464,7 @@
         <v>42421</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2109</v>
       </c>
@@ -3174,7 +3490,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2110</v>
       </c>
@@ -3200,7 +3516,7 @@
         <v>42809</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2111</v>
       </c>
@@ -3226,7 +3542,7 @@
         <v>40378</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2112</v>
       </c>
@@ -3252,7 +3568,7 @@
         <v>40976</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2113</v>
       </c>
@@ -3278,7 +3594,7 @@
         <v>36845</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2114</v>
       </c>
@@ -3304,7 +3620,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2115</v>
       </c>
@@ -3330,7 +3646,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2116</v>
       </c>
@@ -3356,7 +3672,7 @@
         <v>36704</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2117</v>
       </c>
@@ -3382,7 +3698,7 @@
         <v>42895</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2118</v>
       </c>
@@ -3408,7 +3724,7 @@
         <v>41286</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2119</v>
       </c>
@@ -3434,7 +3750,7 @@
         <v>39319</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2120</v>
       </c>
@@ -3460,7 +3776,7 @@
         <v>40839</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2121</v>
       </c>
@@ -3486,7 +3802,7 @@
         <v>36754</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2122</v>
       </c>
@@ -3512,7 +3828,7 @@
         <v>38170</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2123</v>
       </c>
@@ -3538,7 +3854,7 @@
         <v>39164</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2124</v>
       </c>
@@ -3564,7 +3880,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2125</v>
       </c>
@@ -3590,7 +3906,7 @@
         <v>40652</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2126</v>
       </c>
@@ -3616,7 +3932,7 @@
         <v>41065</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2127</v>
       </c>
@@ -3642,7 +3958,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2128</v>
       </c>
@@ -3668,7 +3984,7 @@
         <v>42030</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2129</v>
       </c>
@@ -3694,7 +4010,7 @@
         <v>39499</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2130</v>
       </c>
@@ -3720,7 +4036,7 @@
         <v>43695</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2131</v>
       </c>
@@ -3746,7 +4062,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2132</v>
       </c>
@@ -3772,7 +4088,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2133</v>
       </c>
@@ -3798,7 +4114,7 @@
         <v>39803</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2134</v>
       </c>
@@ -3824,7 +4140,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2135</v>
       </c>
@@ -3850,7 +4166,7 @@
         <v>38971</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2136</v>
       </c>
@@ -3876,7 +4192,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2137</v>
       </c>
@@ -3902,7 +4218,7 @@
         <v>38241</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2138</v>
       </c>
@@ -3928,7 +4244,7 @@
         <v>40684</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2139</v>
       </c>
@@ -3954,7 +4270,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2140</v>
       </c>
@@ -3980,7 +4296,7 @@
         <v>37411</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2141</v>
       </c>
@@ -4006,7 +4322,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2142</v>
       </c>
@@ -4032,7 +4348,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2143</v>
       </c>
@@ -4058,7 +4374,7 @@
         <v>37292</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2144</v>
       </c>
@@ -4084,7 +4400,7 @@
         <v>37609</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2145</v>
       </c>
@@ -4110,7 +4426,7 @@
         <v>37094</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2146</v>
       </c>
@@ -4136,7 +4452,7 @@
         <v>42118</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2147</v>
       </c>
@@ -4162,7 +4478,7 @@
         <v>41517</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2148</v>
       </c>
@@ -4188,7 +4504,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2149</v>
       </c>
@@ -4214,7 +4530,7 @@
         <v>40047</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2150</v>
       </c>
@@ -4240,7 +4556,7 @@
         <v>39802</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2151</v>
       </c>
@@ -4266,7 +4582,7 @@
         <v>39616</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2152</v>
       </c>
@@ -4292,7 +4608,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2153</v>
       </c>
@@ -4318,7 +4634,7 @@
         <v>39019</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2154</v>
       </c>
@@ -4344,7 +4660,7 @@
         <v>41028</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2155</v>
       </c>
@@ -4370,7 +4686,7 @@
         <v>39768</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2156</v>
       </c>
@@ -4396,7 +4712,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2157</v>
       </c>
@@ -4422,7 +4738,7 @@
         <v>36847</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2158</v>
       </c>
@@ -4448,7 +4764,7 @@
         <v>37105</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2159</v>
       </c>
@@ -4474,7 +4790,7 @@
         <v>39744</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2160</v>
       </c>
@@ -4500,7 +4816,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2161</v>
       </c>
@@ -4526,7 +4842,7 @@
         <v>38401</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2162</v>
       </c>
@@ -4552,7 +4868,7 @@
         <v>37956</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2163</v>
       </c>
@@ -4578,7 +4894,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2164</v>
       </c>
@@ -4604,7 +4920,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2165</v>
       </c>
@@ -4630,7 +4946,7 @@
         <v>39740</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2166</v>
       </c>
@@ -4656,7 +4972,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2167</v>
       </c>
@@ -4682,7 +4998,7 @@
         <v>38822</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2168</v>
       </c>
@@ -4708,7 +5024,7 @@
         <v>40083</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2169</v>
       </c>
@@ -4734,7 +5050,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2170</v>
       </c>
@@ -4760,7 +5076,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2171</v>
       </c>
@@ -4786,7 +5102,7 @@
         <v>41582</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2172</v>
       </c>
@@ -4812,7 +5128,7 @@
         <v>36663</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2173</v>
       </c>
@@ -4838,7 +5154,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2174</v>
       </c>
@@ -4864,7 +5180,7 @@
         <v>41710</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2175</v>
       </c>
@@ -4890,7 +5206,7 @@
         <v>40274</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2176</v>
       </c>
@@ -4916,7 +5232,7 @@
         <v>40107</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2177</v>
       </c>
@@ -4942,7 +5258,7 @@
         <v>39142</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2178</v>
       </c>
@@ -4968,7 +5284,7 @@
         <v>39165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2179</v>
       </c>
@@ -4994,7 +5310,7 @@
         <v>42462</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2180</v>
       </c>
@@ -5020,7 +5336,7 @@
         <v>41654</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2181</v>
       </c>
@@ -5046,7 +5362,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2182</v>
       </c>
@@ -5072,7 +5388,7 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2183</v>
       </c>
@@ -5098,7 +5414,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2184</v>
       </c>
@@ -5124,7 +5440,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2185</v>
       </c>
@@ -5150,7 +5466,7 @@
         <v>42526</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2186</v>
       </c>
@@ -5176,7 +5492,7 @@
         <v>38565</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2187</v>
       </c>
@@ -5202,7 +5518,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2188</v>
       </c>
@@ -5228,7 +5544,7 @@
         <v>39656</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2189</v>
       </c>
@@ -5254,7 +5570,7 @@
         <v>41701</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2190</v>
       </c>
@@ -5280,7 +5596,7 @@
         <v>42528</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2191</v>
       </c>
@@ -5306,7 +5622,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2192</v>
       </c>
@@ -5332,7 +5648,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2193</v>
       </c>
@@ -5358,7 +5674,7 @@
         <v>38384</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2194</v>
       </c>
@@ -5384,7 +5700,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2195</v>
       </c>
@@ -5410,7 +5726,7 @@
         <v>43124</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2196</v>
       </c>
@@ -5436,7 +5752,7 @@
         <v>37442</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2197</v>
       </c>
@@ -5462,7 +5778,7 @@
         <v>38690</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2198</v>
       </c>
@@ -5498,72 +5814,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B6CB15-8A29-466D-A988-098D0B1F792F}">
-  <dimension ref="B14:F36"/>
+  <dimension ref="B14:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="72" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="76" max="78" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="83" max="85" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="96" max="104" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="72" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="78" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="85" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="104" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>104</v>
       </c>
@@ -5571,237 +5889,210 @@
         <v>126</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="5">
-        <v>1258435</v>
+        <v>99568</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C16" s="5">
-        <v>699842</v>
+        <v>72568</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="5">
-        <v>1079786</v>
+        <v>78859</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C18" s="5">
-        <v>903309</v>
+        <v>250995</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="5">
-        <v>663452</v>
-      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1067110</v>
-      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="5">
-        <v>653792</v>
-      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6325726</v>
-      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E35" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="6">
-        <v>99</v>
+      <c r="F34">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId5"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Exercise Files/Exercise 7/E7 HR Data - Slicers.xlsx
+++ b/Exercise Files/Exercise 7/E7 HR Data - Slicers.xlsx
@@ -8,36 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wayvy Technologies\Documents\GitHub\PivotTables\Exercise Files\Exercise 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D693A-A776-4185-9768-39E79E20C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DA25F-79F2-43E3-BCE4-F10C015CEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{960E11C6-F8C0-4296-BE1C-66F0D68FFF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Info" sheetId="1" r:id="rId1"/>
     <sheet name="Employee Analysis" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Info'!$A$1:$C$100</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable1" hidden="1">'Employee Info'!$A$1:$C$100</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable2" hidden="1">'[1]Department Info'!$A$1:$A$100</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable3" hidden="1">'[2]Job Info'!$A$1:$A$100</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable11" hidden="1">'Employee Info'!$A$1:$C$100</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable21" hidden="1">'[1]Department Info'!$A$1:$A$100</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable31" hidden="1">'[2]Job Info'!$A$1:$A$100</definedName>
     <definedName name="NativeTimeline_Date_Hired">#N/A</definedName>
     <definedName name="Slicer_Gender">#N/A</definedName>
     <definedName name="Slicer_Job_Type">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -45,7 +46,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
       <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId8"/>
+        <x15:timelineCacheRef r:id="rId9"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -91,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable11"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -100,7 +101,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -109,7 +110,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable3"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HRDataConsolidating.xlsxTable31"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="133">
   <si>
     <t>Employee ID</t>
   </si>
@@ -504,64 +505,19 @@
     <t>2000</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>No of Employees</t>
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of Salary</t>
+  </si>
+  <si>
+    <t>Count of Employee Name</t>
   </si>
 </sst>
 </file>
@@ -609,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -618,6 +574,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -727,7 +687,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
@@ -876,18 +836,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Gender">
@@ -910,7 +870,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -920,7 +880,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2705100" y="1457325"/>
+              <a:off x="2609850" y="1466850"/>
               <a:ext cx="2247900" cy="409576"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2291,8 +2251,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A70687A-A717-4115-A00E-E6175DBA0AF2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
-  <location ref="E14:F34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A70687A-A717-4115-A00E-E6175DBA0AF2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
+  <location ref="E14:F16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
@@ -2478,63 +2438,9 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -2547,6 +2453,23 @@
     <dataField name="No of Employees" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="7" type="dateBetween" evalOrder="-1" id="88" name="Date Hired">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="36526"/>
+            <customFilter operator="lessThanOrEqual" val="36891"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2559,8 +2482,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EEF074F-9D5B-4FFA-AB68-1D5FFB45081C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department" customListSort="0">
-  <location ref="B14:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EEF074F-9D5B-4FFA-AB68-1D5FFB45081C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department" customListSort="0">
+  <location ref="B14:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0" sortType="descending">
@@ -2679,7 +2602,7 @@
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2766,15 +2689,9 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -2788,7 +2705,251 @@
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="7" type="dateBetween" evalOrder="-1" id="20" name="Date Hired">
+    <filter fld="7" type="dateBetween" evalOrder="-1" id="108" name="Date Hired">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="36526"/>
+            <customFilter operator="lessThanOrEqual" val="36891"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78EF3E7E-EBCF-499A-BE53-ECA29C9C00A6}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="100">
+        <item x="22"/>
+        <item x="87"/>
+        <item x="31"/>
+        <item x="54"/>
+        <item x="56"/>
+        <item x="59"/>
+        <item x="82"/>
+        <item x="30"/>
+        <item x="92"/>
+        <item x="84"/>
+        <item x="18"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="6"/>
+        <item x="83"/>
+        <item x="19"/>
+        <item x="74"/>
+        <item x="67"/>
+        <item x="4"/>
+        <item x="86"/>
+        <item x="63"/>
+        <item x="12"/>
+        <item x="81"/>
+        <item x="20"/>
+        <item x="71"/>
+        <item x="65"/>
+        <item x="85"/>
+        <item x="70"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="93"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="69"/>
+        <item x="47"/>
+        <item x="95"/>
+        <item x="50"/>
+        <item x="14"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="88"/>
+        <item x="60"/>
+        <item x="97"/>
+        <item x="32"/>
+        <item x="79"/>
+        <item x="29"/>
+        <item x="21"/>
+        <item x="98"/>
+        <item x="40"/>
+        <item x="49"/>
+        <item x="90"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="38"/>
+        <item x="94"/>
+        <item x="57"/>
+        <item x="75"/>
+        <item x="80"/>
+        <item x="5"/>
+        <item x="26"/>
+        <item x="55"/>
+        <item x="48"/>
+        <item x="35"/>
+        <item x="7"/>
+        <item x="52"/>
+        <item x="36"/>
+        <item x="91"/>
+        <item x="89"/>
+        <item x="39"/>
+        <item x="8"/>
+        <item x="62"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="64"/>
+        <item x="96"/>
+        <item x="34"/>
+        <item x="73"/>
+        <item x="51"/>
+        <item x="33"/>
+        <item x="61"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="46"/>
+        <item x="58"/>
+        <item x="15"/>
+        <item x="72"/>
+        <item x="16"/>
+        <item x="76"/>
+        <item x="3"/>
+        <item x="77"/>
+        <item x="9"/>
+        <item x="66"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="78"/>
+        <item x="53"/>
+        <item x="45"/>
+        <item x="68"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Salary" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Count of Employee Name" fld="1" subtotal="count" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="7" type="dateBetween" evalOrder="-1" id="89" name="Date Hired">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -2819,6 +2980,8 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Job_Type" xr10:uid="{1DC9C1BA-3BDF-4FBA-A48D-826FDF78B5D1}" sourceName="Job Type">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable2"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
+    <pivotTable tabId="9" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1758969193">
@@ -2835,6 +2998,8 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender" xr10:uid="{D39D5723-4E92-496C-8CAC-D5C92AD32390}" sourceName="Gender">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable1"/>
+    <pivotTable tabId="8" name="PivotTable2"/>
+    <pivotTable tabId="9" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1758969193">
@@ -3170,6 +3335,8 @@
 <timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date_Hired" xr10:uid="{050D1A6D-5BA0-4205-9C5F-6D4187B708B1}" sourceName="Date Hired">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable2"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
+    <pivotTable tabId="9" name="PivotTable1"/>
   </pivotTables>
   <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1758969193" filterType="dateBetween">
     <selection startDate="2000-01-01T00:00:00" endDate="2000-12-31T00:00:00"/>
@@ -3188,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91CF34E-7D4C-4202-8C48-E09665776E8A}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -5814,9 +5981,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B6CB15-8A29-466D-A988-098D0B1F792F}">
-  <dimension ref="B14:F34"/>
+  <dimension ref="B14:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5824,7 +5991,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
@@ -5889,10 +6056,10 @@
         <v>126</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -5905,178 +6072,22 @@
       <c r="E15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F15">
-        <v>2</v>
+      <c r="F15" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C16" s="5">
-        <v>72568</v>
+        <v>99568</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="5">
-        <v>78859</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17">
+        <v>125</v>
+      </c>
+      <c r="F16" s="6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="5">
-        <v>250995</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6095,4 +6106,70 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABB3152-3580-442B-850F-72BDF7C62047}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="6">
+        <v>99568</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="6">
+        <v>99568</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="6">
+        <v>99568</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>